--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200522.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200522.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\shandong\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BB1250-8BBF-4A8A-B65A-43B478CEA7F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -543,6 +549,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -553,7 +560,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -563,6 +570,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -573,7 +581,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>21</t>
     </r>
@@ -583,6 +591,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -593,7 +602,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -603,6 +612,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时至</t>
@@ -613,7 +623,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>24</t>
     </r>
@@ -623,6 +633,7 @@
         <sz val="18"/>
         <color rgb="FF000000"/>
         <rFont val="华文宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>时山东省新型冠状病毒肺炎疫情情况</t>
@@ -10424,16 +10435,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10502,14 +10509,14 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -10520,157 +10527,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="华文宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10689,194 +10554,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -10884,249 +10563,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11159,7 +10599,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11169,7 +10609,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -11184,63 +10624,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -11498,62 +10895,62 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.925" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.925" style="11" customWidth="1"/>
-    <col min="2" max="2" width="45.925" style="11" customWidth="1"/>
-    <col min="3" max="3" width="31.925" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.925" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.075" style="11" customWidth="1"/>
-    <col min="6" max="6" width="27.3833333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="44" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.075" style="11" customWidth="1"/>
-    <col min="9" max="12" width="12.4583333333333" style="11" customWidth="1"/>
-    <col min="13" max="13" width="19.4666666666667" style="11" customWidth="1"/>
-    <col min="14" max="14" width="20.7166666666667" style="11" customWidth="1"/>
-    <col min="15" max="15" width="22.075" style="11" customWidth="1"/>
-    <col min="16" max="19" width="12.4583333333333" style="11" customWidth="1"/>
-    <col min="20" max="20" width="18.2333333333333" style="11" customWidth="1"/>
-    <col min="21" max="21" width="21.575" style="11" customWidth="1"/>
-    <col min="22" max="22" width="23.3166666666667" style="11" customWidth="1"/>
-    <col min="23" max="24" width="26.6166666666667" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.53515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="31.921875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.921875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="12.07421875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="16" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.07421875" style="11" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="19.4609375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.69140625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="22.07421875" style="11" customWidth="1"/>
+    <col min="16" max="19" width="12.4609375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="18.23046875" style="11" customWidth="1"/>
+    <col min="21" max="21" width="21.53515625" style="11" customWidth="1"/>
+    <col min="22" max="22" width="23.3046875" style="11" customWidth="1"/>
+    <col min="23" max="24" width="26.61328125" style="11" customWidth="1"/>
     <col min="25" max="25" width="7" style="11" customWidth="1"/>
-    <col min="26" max="26" width="31.925" style="12" customWidth="1"/>
+    <col min="26" max="26" width="31.921875" style="12" customWidth="1"/>
     <col min="27" max="27" width="18" style="11" customWidth="1"/>
-    <col min="28" max="28" width="10.6166666666667" style="11" customWidth="1"/>
-    <col min="29" max="29" width="31.925" style="11" customWidth="1"/>
-    <col min="30" max="30" width="16.075" style="11" customWidth="1"/>
+    <col min="28" max="28" width="10.61328125" style="11" customWidth="1"/>
+    <col min="29" max="29" width="31.921875" style="11" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="11" customWidth="1"/>
     <col min="31" max="31" width="20" style="11" customWidth="1"/>
-    <col min="32" max="32" width="31.925" style="11" customWidth="1"/>
-    <col min="33" max="33" width="21.925" style="11" customWidth="1"/>
-    <col min="34" max="34" width="20.925" style="11" customWidth="1"/>
-    <col min="35" max="35" width="25.4583333333333" style="11" customWidth="1"/>
-    <col min="36" max="36" width="31.925" style="11" customWidth="1"/>
-    <col min="37" max="37" width="21.925" style="11" customWidth="1"/>
-    <col min="38" max="38" width="24.4583333333333" style="11" customWidth="1"/>
+    <col min="32" max="32" width="31.921875" style="11" customWidth="1"/>
+    <col min="33" max="33" width="21.921875" style="11" customWidth="1"/>
+    <col min="34" max="34" width="20.921875" style="11" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="11" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="11" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="11" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="11" customWidth="1"/>
     <col min="39" max="39" width="31" style="11" customWidth="1"/>
-    <col min="40" max="40" width="8.925" style="11" customWidth="1"/>
-    <col min="41" max="42" width="31.925" style="11" customWidth="1"/>
-    <col min="43" max="43" width="21.925" style="11" customWidth="1"/>
-    <col min="44" max="44" width="24.4583333333333" style="11" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="11" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="11" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="11" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="11" customWidth="1"/>
     <col min="45" max="45" width="31" style="11" customWidth="1"/>
-    <col min="46" max="46" width="5.075" style="11" customWidth="1"/>
-    <col min="47" max="16384" width="10.925" style="11"/>
+    <col min="46" max="46" width="5.07421875" style="11" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="15" spans="1:46">
+    <row r="1" spans="1:46" s="10" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -11693,7 +11090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" ht="24.75" spans="1:42">
+    <row r="2" spans="1:46" ht="26">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -11701,10 +11098,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D2" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>47</v>
@@ -11736,7 +11133,7 @@
         <v>49</v>
       </c>
       <c r="Z2" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA2" s="22" t="s">
         <v>50</v>
@@ -11746,7 +11143,7 @@
       </c>
       <c r="AC2" s="12"/>
       <c r="AF2" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG2" s="11" t="s">
         <v>52</v>
@@ -11758,7 +11155,7 @@
         <v>54</v>
       </c>
       <c r="AJ2" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK2" s="11" t="s">
         <v>52</v>
@@ -11772,7 +11169,7 @@
       <c r="AO2" s="12"/>
       <c r="AP2" s="12"/>
     </row>
-    <row r="3" ht="24.75" spans="1:39">
+    <row r="3" spans="1:46" ht="26">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -11780,10 +11177,10 @@
         <v>57</v>
       </c>
       <c r="C3" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D3" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>47</v>
@@ -11806,7 +11203,7 @@
         <v>49</v>
       </c>
       <c r="Z3" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA3" s="22" t="s">
         <v>50</v>
@@ -11815,7 +11212,7 @@
         <v>51</v>
       </c>
       <c r="AF3" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG3" s="11" t="s">
         <v>52</v>
@@ -11827,7 +11224,7 @@
         <v>54</v>
       </c>
       <c r="AJ3" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK3" s="11" t="s">
         <v>52</v>
@@ -11839,7 +11236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" ht="24.75" spans="1:39">
+    <row r="4" spans="1:46" ht="26">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -11847,10 +11244,10 @@
         <v>57</v>
       </c>
       <c r="C4" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D4" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>47</v>
@@ -11876,7 +11273,7 @@
         <v>49</v>
       </c>
       <c r="Z4" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA4" s="22" t="s">
         <v>50</v>
@@ -11885,7 +11282,7 @@
         <v>51</v>
       </c>
       <c r="AF4" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG4" s="11" t="s">
         <v>52</v>
@@ -11897,7 +11294,7 @@
         <v>54</v>
       </c>
       <c r="AJ4" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK4" s="11" t="s">
         <v>52</v>
@@ -11909,7 +11306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" ht="24.75" spans="1:39">
+    <row r="5" spans="1:46" ht="26">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -11917,10 +11314,10 @@
         <v>57</v>
       </c>
       <c r="C5" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D5" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>47</v>
@@ -11946,7 +11343,7 @@
         <v>49</v>
       </c>
       <c r="Z5" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA5" s="22" t="s">
         <v>50</v>
@@ -11955,7 +11352,7 @@
         <v>51</v>
       </c>
       <c r="AF5" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG5" s="11" t="s">
         <v>52</v>
@@ -11967,7 +11364,7 @@
         <v>54</v>
       </c>
       <c r="AJ5" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK5" s="11" t="s">
         <v>52</v>
@@ -11979,7 +11376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" ht="24.75" spans="1:39">
+    <row r="6" spans="1:46" ht="26">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -11987,10 +11384,10 @@
         <v>57</v>
       </c>
       <c r="C6" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D6" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>47</v>
@@ -12013,7 +11410,7 @@
         <v>49</v>
       </c>
       <c r="Z6" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA6" s="22" t="s">
         <v>50</v>
@@ -12022,7 +11419,7 @@
         <v>51</v>
       </c>
       <c r="AF6" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG6" s="11" t="s">
         <v>52</v>
@@ -12034,7 +11431,7 @@
         <v>54</v>
       </c>
       <c r="AJ6" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK6" s="11" t="s">
         <v>52</v>
@@ -12046,7 +11443,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" ht="24.75" spans="1:39">
+    <row r="7" spans="1:46" ht="26">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -12054,10 +11451,10 @@
         <v>57</v>
       </c>
       <c r="C7" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D7" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>47</v>
@@ -12076,7 +11473,7 @@
         <v>49</v>
       </c>
       <c r="Z7" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>50</v>
@@ -12085,7 +11482,7 @@
         <v>51</v>
       </c>
       <c r="AF7" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG7" s="11" t="s">
         <v>52</v>
@@ -12097,7 +11494,7 @@
         <v>54</v>
       </c>
       <c r="AJ7" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK7" s="11" t="s">
         <v>52</v>
@@ -12109,7 +11506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" ht="24.75" spans="1:39">
+    <row r="8" spans="1:46" ht="26">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -12117,10 +11514,10 @@
         <v>57</v>
       </c>
       <c r="C8" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D8" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>47</v>
@@ -12143,7 +11540,7 @@
         <v>49</v>
       </c>
       <c r="Z8" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>50</v>
@@ -12152,7 +11549,7 @@
         <v>51</v>
       </c>
       <c r="AF8" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG8" s="11" t="s">
         <v>52</v>
@@ -12164,7 +11561,7 @@
         <v>54</v>
       </c>
       <c r="AJ8" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK8" s="11" t="s">
         <v>52</v>
@@ -12176,7 +11573,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" ht="24.75" spans="1:39">
+    <row r="9" spans="1:46" ht="26">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -12184,10 +11581,10 @@
         <v>57</v>
       </c>
       <c r="C9" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D9" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>47</v>
@@ -12210,7 +11607,7 @@
         <v>49</v>
       </c>
       <c r="Z9" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA9" s="22" t="s">
         <v>50</v>
@@ -12219,7 +11616,7 @@
         <v>51</v>
       </c>
       <c r="AF9" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG9" s="11" t="s">
         <v>52</v>
@@ -12231,7 +11628,7 @@
         <v>54</v>
       </c>
       <c r="AJ9" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK9" s="11" t="s">
         <v>52</v>
@@ -12243,7 +11640,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" ht="24.75" spans="1:39">
+    <row r="10" spans="1:46" ht="26">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -12251,10 +11648,10 @@
         <v>57</v>
       </c>
       <c r="C10" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D10" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>47</v>
@@ -12276,7 +11673,7 @@
         <v>49</v>
       </c>
       <c r="Z10" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>50</v>
@@ -12285,7 +11682,7 @@
         <v>51</v>
       </c>
       <c r="AF10" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG10" s="11" t="s">
         <v>52</v>
@@ -12297,7 +11694,7 @@
         <v>54</v>
       </c>
       <c r="AJ10" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK10" s="11" t="s">
         <v>52</v>
@@ -12309,7 +11706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" ht="24.75" spans="1:39">
+    <row r="11" spans="1:46" ht="26">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -12317,10 +11714,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D11" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>47</v>
@@ -12346,7 +11743,7 @@
         <v>49</v>
       </c>
       <c r="Z11" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA11" s="22" t="s">
         <v>50</v>
@@ -12355,7 +11752,7 @@
         <v>51</v>
       </c>
       <c r="AF11" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>52</v>
@@ -12367,7 +11764,7 @@
         <v>54</v>
       </c>
       <c r="AJ11" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>52</v>
@@ -12379,7 +11776,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" ht="24.75" spans="1:39">
+    <row r="12" spans="1:46" ht="26">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -12387,10 +11784,10 @@
         <v>57</v>
       </c>
       <c r="C12" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D12" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>47</v>
@@ -12416,7 +11813,7 @@
         <v>49</v>
       </c>
       <c r="Z12" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA12" s="22" t="s">
         <v>50</v>
@@ -12425,7 +11822,7 @@
         <v>51</v>
       </c>
       <c r="AF12" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG12" s="11" t="s">
         <v>52</v>
@@ -12437,7 +11834,7 @@
         <v>54</v>
       </c>
       <c r="AJ12" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK12" s="11" t="s">
         <v>52</v>
@@ -12449,7 +11846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="24.75" spans="1:39">
+    <row r="13" spans="1:46" ht="26">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -12457,10 +11854,10 @@
         <v>57</v>
       </c>
       <c r="C13" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D13" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>47</v>
@@ -12483,7 +11880,7 @@
         <v>49</v>
       </c>
       <c r="Z13" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA13" s="22" t="s">
         <v>50</v>
@@ -12492,7 +11889,7 @@
         <v>51</v>
       </c>
       <c r="AF13" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG13" s="11" t="s">
         <v>52</v>
@@ -12504,7 +11901,7 @@
         <v>54</v>
       </c>
       <c r="AJ13" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>52</v>
@@ -12516,7 +11913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="24.75" spans="1:39">
+    <row r="14" spans="1:46" ht="26">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -12524,10 +11921,10 @@
         <v>57</v>
       </c>
       <c r="C14" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D14" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>47</v>
@@ -12550,7 +11947,7 @@
         <v>49</v>
       </c>
       <c r="Z14" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA14" s="22" t="s">
         <v>50</v>
@@ -12559,7 +11956,7 @@
         <v>51</v>
       </c>
       <c r="AF14" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG14" s="11" t="s">
         <v>52</v>
@@ -12571,7 +11968,7 @@
         <v>54</v>
       </c>
       <c r="AJ14" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK14" s="11" t="s">
         <v>52</v>
@@ -12583,7 +11980,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="24.75" spans="1:39">
+    <row r="15" spans="1:46" ht="26">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -12591,10 +11988,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D15" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>47</v>
@@ -12620,7 +12017,7 @@
         <v>49</v>
       </c>
       <c r="Z15" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA15" s="22" t="s">
         <v>50</v>
@@ -12629,7 +12026,7 @@
         <v>51</v>
       </c>
       <c r="AF15" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG15" s="11" t="s">
         <v>52</v>
@@ -12641,7 +12038,7 @@
         <v>54</v>
       </c>
       <c r="AJ15" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK15" s="11" t="s">
         <v>52</v>
@@ -12653,7 +12050,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" ht="24.75" spans="1:39">
+    <row r="16" spans="1:46" ht="26">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -12661,10 +12058,10 @@
         <v>57</v>
       </c>
       <c r="C16" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D16" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>47</v>
@@ -12687,7 +12084,7 @@
         <v>49</v>
       </c>
       <c r="Z16" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA16" s="22" t="s">
         <v>50</v>
@@ -12696,7 +12093,7 @@
         <v>51</v>
       </c>
       <c r="AF16" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG16" s="11" t="s">
         <v>52</v>
@@ -12708,7 +12105,7 @@
         <v>54</v>
       </c>
       <c r="AJ16" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK16" s="11" t="s">
         <v>52</v>
@@ -12720,7 +12117,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="24.75" spans="1:39">
+    <row r="17" spans="1:39" ht="26">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -12728,10 +12125,10 @@
         <v>57</v>
       </c>
       <c r="C17" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D17" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>47</v>
@@ -12754,7 +12151,7 @@
         <v>49</v>
       </c>
       <c r="Z17" s="21">
-        <v>43973.3402777778</v>
+        <v>43973.340277777803</v>
       </c>
       <c r="AA17" s="22" t="s">
         <v>50</v>
@@ -12763,7 +12160,7 @@
         <v>51</v>
       </c>
       <c r="AF17" s="21">
-        <v>43973.3958333333</v>
+        <v>43973.395833333299</v>
       </c>
       <c r="AG17" s="11" t="s">
         <v>52</v>
@@ -12775,7 +12172,7 @@
         <v>54</v>
       </c>
       <c r="AJ17" s="12">
-        <v>43973.4513888889</v>
+        <v>43973.451388888898</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>52</v>
@@ -12787,7 +12184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:39">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -12795,10 +12192,10 @@
         <v>57</v>
       </c>
       <c r="C18" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D18" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>47</v>
@@ -12818,7 +12215,7 @@
       </c>
       <c r="Z18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:26">
+    <row r="19" spans="1:39" ht="23" customHeight="1">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -12826,10 +12223,10 @@
         <v>57</v>
       </c>
       <c r="C19" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D19" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>47</v>
@@ -12845,7 +12242,7 @@
       </c>
       <c r="Z19" s="21"/>
     </row>
-    <row r="20" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="20" spans="1:39" ht="23" customHeight="1">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -12853,10 +12250,10 @@
         <v>57</v>
       </c>
       <c r="C20" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D20" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>47</v>
@@ -12872,7 +12269,7 @@
       </c>
       <c r="Z20" s="21"/>
     </row>
-    <row r="21" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="21" spans="1:39" ht="23" customHeight="1">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -12880,10 +12277,10 @@
         <v>57</v>
       </c>
       <c r="C21" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D21" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>47</v>
@@ -12896,7 +12293,7 @@
       </c>
       <c r="Z21" s="21"/>
     </row>
-    <row r="22" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="22" spans="1:39" ht="23" customHeight="1">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -12904,10 +12301,10 @@
         <v>78</v>
       </c>
       <c r="C22" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D22" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>47</v>
@@ -12926,7 +12323,7 @@
       </c>
       <c r="Z22" s="21"/>
     </row>
-    <row r="23" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="23" spans="1:39" ht="23" customHeight="1">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -12934,10 +12331,10 @@
         <v>78</v>
       </c>
       <c r="C23" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D23" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>47</v>
@@ -12956,7 +12353,7 @@
       </c>
       <c r="Z23" s="21"/>
     </row>
-    <row r="24" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="24" spans="1:39" ht="23" customHeight="1">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -12964,10 +12361,10 @@
         <v>78</v>
       </c>
       <c r="C24" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D24" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>47</v>
@@ -12986,7 +12383,7 @@
       </c>
       <c r="Z24" s="21"/>
     </row>
-    <row r="25" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="25" spans="1:39" ht="23" customHeight="1">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -12994,10 +12391,10 @@
         <v>78</v>
       </c>
       <c r="C25" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D25" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>47</v>
@@ -13016,7 +12413,7 @@
       </c>
       <c r="Z25" s="21"/>
     </row>
-    <row r="26" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="26" spans="1:39" ht="23" customHeight="1">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -13024,10 +12421,10 @@
         <v>78</v>
       </c>
       <c r="C26" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D26" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>47</v>
@@ -13046,7 +12443,7 @@
       </c>
       <c r="Z26" s="21"/>
     </row>
-    <row r="27" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="27" spans="1:39" ht="23" customHeight="1">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -13054,10 +12451,10 @@
         <v>78</v>
       </c>
       <c r="C27" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D27" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>47</v>
@@ -13076,7 +12473,7 @@
       </c>
       <c r="Z27" s="21"/>
     </row>
-    <row r="28" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="28" spans="1:39" ht="23" customHeight="1">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -13084,10 +12481,10 @@
         <v>78</v>
       </c>
       <c r="C28" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D28" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>47</v>
@@ -13106,7 +12503,7 @@
       </c>
       <c r="Z28" s="21"/>
     </row>
-    <row r="29" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="29" spans="1:39" ht="23" customHeight="1">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -13114,10 +12511,10 @@
         <v>78</v>
       </c>
       <c r="C29" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D29" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>47</v>
@@ -13136,7 +12533,7 @@
       </c>
       <c r="Z29" s="21"/>
     </row>
-    <row r="30" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="30" spans="1:39" ht="23" customHeight="1">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -13144,10 +12541,10 @@
         <v>78</v>
       </c>
       <c r="C30" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D30" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>47</v>
@@ -13166,7 +12563,7 @@
       </c>
       <c r="Z30" s="21"/>
     </row>
-    <row r="31" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="31" spans="1:39" ht="23" customHeight="1">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -13174,10 +12571,10 @@
         <v>78</v>
       </c>
       <c r="C31" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D31" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>47</v>
@@ -13196,7 +12593,7 @@
       </c>
       <c r="Z31" s="21"/>
     </row>
-    <row r="32" s="11" customFormat="1" ht="23" customHeight="1" spans="1:26">
+    <row r="32" spans="1:39" ht="23" customHeight="1">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -13204,10 +12601,10 @@
         <v>57</v>
       </c>
       <c r="C32" s="16">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="D32" s="16">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>47</v>
@@ -13227,70 +12624,77 @@
       <c r="Z32" s="21"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G33:G1048576">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G33:G1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AK20 AQ20 AG21 AK21 AQ21 AG22 AK22 AQ22 AG23 AK23 AQ23 AG24 AK24 AQ24 AG25 AK25 AQ25 AG26 AK26 AQ26 AG27 AK27 AQ27 AG28 AK28 AQ28 AG29 AK29 AQ29 AG30 AK30 AQ30 AG31 AK31 AQ31 AG32 AK32 AQ32 AG2:AG19 AG33:AG1048576 AK2:AK19 AK33:AK1048576 AQ2:AQ19 AQ33:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 L2 M2:O2 P2:S2 T2:V2 W2:X2 K10 K19 I20:J20 K20 L20 M20:O20 P20:S20 T20:V20 W20:X20 I21:J21 K21 L21 M21:O21 P21:S21 T21:V21 W21:X21 I22:J22 K22 L22 M22:O22 P22:S22 T22:V22 W22:X22 I23:J23 K23 L23 M23:O23 P23:S23 T23:V23 W23:X23 I24:J24 K24 L24 M24:O24 P24:S24 T24:V24 W24:X24 I25:J25 K25 L25 M25:O25 P25:S25 T25:V25 W25:X25 I26:J26 K26 L26 M26:O26 P26:S26 T26:V26 W26:X26 I27:J27 K27 L27 M27:O27 P27:S27 T27:V27 W27:X27 I28:J28 K28 L28 M28:O28 P28:S28 T28:V28 W28:X28 I29:J29 K29 L29 M29:O29 P29:S29 T29:V29 W29:X29 I30:J30 K30 L30 M30:O30 P30:S30 T30:V30 W30:X30 I31:J31 K31 L31 M31:O31 P31:S31 T31:V31 W31:X31 I32:J32 K32 L32 M32:O32 P32:S32 T32:V32 W32:X32 J2:J17 K33:K1048576 L3:L17 L18:L19 L33:L1048576 Q3:Q17 S3:S17 M3:O17 I18:J19 W18:X19 M18:O19 P18:S19 W3:X17 T18:V19 T3:V17 I33:J1048576 W33:X1048576 M33:O1048576 P33:S1048576 T33:V1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:S2 K10 K19:K20 L18:S20 K21:S32 J2:J17 Q3:Q17 S3:S17 L3:O17 I18:J32 T2:X32 I33:X1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B21 B22 B23 B24 B25 B26 B27 B28 B29 B30 B31 B32 B2:B19 B33:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H2:H19 H33:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F20 F21 F22 F23 F24 F25 F26 F27 F28 F29 F30 F31 F32 F2:F19 F33:F1048576">
-      <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI20 AI21 AI22 AI23 AI24 AI25 AI26 AI27 AI28 AI29 AI30 AI31 AI32 AI2:AI19 AI33:AI1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM20 AS20 AM21 AS21 AM22 AS22 AM23 AS23 AM24 AS24 AM25 AS25 AM26 AS26 AM27 AS27 AM28 AS28 AM29 AS29 AM30 AS30 AM31 AS31 AM32 AS32 AM2:AM19 AM33:AM1048576 AS2:AS19 AS33:AS1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AS2:AS1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="AB2" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB3" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB4" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB5" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB6" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB7" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB8" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB9" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB10" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB11" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB12" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB13" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB14" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB15" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB16" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
-    <hyperlink ref="AB17" r:id="rId1" display="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html"/>
+    <hyperlink ref="AB2" r:id="rId1" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB3" r:id="rId2" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB4" r:id="rId3" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AB5" r:id="rId4" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AB6" r:id="rId5" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AB7" r:id="rId6" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AB8" r:id="rId7" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AB9" r:id="rId8" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AB10" r:id="rId9" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AB11" r:id="rId10" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AB12" r:id="rId11" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AB13" r:id="rId12" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AB14" r:id="rId13" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AB15" r:id="rId14" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AB16" r:id="rId15" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AB17" r:id="rId16" tooltip="http://wsjkw.shandong.gov.cn/ztzl/rdzt/qlzhfkgz/tzgg/202005/t20200522_3109743.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2907"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="T2" sqref="T2:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -37602,7 +37006,7 @@
       <c r="F1496" s="3"/>
       <c r="AN1496" s="3"/>
     </row>
-    <row r="1497" s="1" customFormat="1" spans="1:40">
+    <row r="1497" spans="1:40" s="1" customFormat="1">
       <c r="A1497" s="7" t="s">
         <v>103</v>
       </c>
@@ -60448,8 +59852,8 @@
       <c r="AN2907" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>